--- a/0咪咕音乐/咪咕音乐v3130/咪咕音乐Jadeite_USS_music-V3.13.0版本测试用例.xlsx
+++ b/0咪咕音乐/咪咕音乐v3130/咪咕音乐Jadeite_USS_music-V3.13.0版本测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="449"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="449"/>
   </bookViews>
   <sheets>
     <sheet name="es" sheetId="1" r:id="rId1"/>
@@ -973,7 +973,7 @@
     <t>1、请求成功 2、最佳展示位B区依次展示歌手S.H.E的专辑、视频彩铃、mv</t>
   </si>
   <si>
-    <t xml:space="preserve">带有数字的歌手错字搜索 </t>
+    <t>带有数字的歌手错字搜索</t>
   </si>
   <si>
     <t>mgyy-076</t>
@@ -1097,7 +1097,7 @@
     <t>mgyy-085</t>
   </si>
   <si>
-    <t xml:space="preserve">taylor swift .lover </t>
+    <t>taylor swift .lover</t>
   </si>
   <si>
     <t>1、请求成功 2、返回结果：taylor swift 、 lover
@@ -2769,6 +2769,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2783,30 +2805,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2823,29 +2829,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2891,6 +2874,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2900,13 +2907,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2933,7 +2933,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2945,97 +3029,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3053,13 +3053,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3071,13 +3095,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3089,31 +3113,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3255,6 +3255,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3271,6 +3282,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -3281,21 +3325,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3317,38 +3346,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3360,10 +3360,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3372,133 +3372,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4015,24 +4015,24 @@
   <sheetPr/>
   <dimension ref="A1:AC335"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A323" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J333" sqref="J333"/>
+      <selection pane="bottomLeft" activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="10.6083333333333" customWidth="1"/>
-    <col min="3" max="3" width="12.0916666666667" customWidth="1"/>
-    <col min="4" max="4" width="13.7" customWidth="1"/>
-    <col min="5" max="5" width="31.475" customWidth="1"/>
-    <col min="6" max="6" width="10.275" customWidth="1"/>
-    <col min="8" max="8" width="23.4416666666667" customWidth="1"/>
-    <col min="9" max="9" width="19.6166666666667" customWidth="1"/>
+    <col min="2" max="2" width="10.6111111111111" customWidth="1"/>
+    <col min="3" max="3" width="12.0925925925926" customWidth="1"/>
+    <col min="4" max="4" width="13.7037037037037" customWidth="1"/>
+    <col min="5" max="5" width="31.4722222222222" customWidth="1"/>
+    <col min="6" max="6" width="10.2777777777778" customWidth="1"/>
+    <col min="8" max="8" width="23.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="19.6203703703704" customWidth="1"/>
     <col min="10" max="10" width="36.1666666666667" customWidth="1"/>
-    <col min="11" max="11" width="33.9416666666667" customWidth="1"/>
-    <col min="13" max="13" width="11.6333333333333" customWidth="1"/>
+    <col min="11" max="11" width="33.9444444444444" customWidth="1"/>
+    <col min="13" max="13" width="11.6296296296296" customWidth="1"/>
     <col min="20" max="28" width="9" style="8"/>
   </cols>
   <sheetData>
@@ -4095,7 +4095,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="16.5" spans="1:29">
+    <row r="2" s="2" customFormat="1" ht="15" spans="1:29">
       <c r="A2" s="15" t="s">
         <v>19</v>
       </c>
@@ -4128,7 +4128,7 @@
       <c r="AB2" s="1"/>
       <c r="AC2" s="34"/>
     </row>
-    <row r="3" s="3" customFormat="1" ht="33" spans="1:25">
+    <row r="3" s="3" customFormat="1" ht="30" spans="1:25">
       <c r="A3" s="21"/>
       <c r="B3" s="15" t="s">
         <v>20</v>
@@ -4157,7 +4157,7 @@
       <c r="X3" s="33"/>
       <c r="Y3" s="33"/>
     </row>
-    <row r="4" s="3" customFormat="1" ht="16.5" spans="1:25">
+    <row r="4" s="3" customFormat="1" ht="15.6" spans="1:25">
       <c r="A4" s="21"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15" t="s">
@@ -4186,7 +4186,7 @@
       <c r="X4" s="33"/>
       <c r="Y4" s="33"/>
     </row>
-    <row r="5" s="3" customFormat="1" ht="16.5" spans="1:25">
+    <row r="5" s="3" customFormat="1" ht="15.6" spans="1:25">
       <c r="A5" s="21"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -4215,7 +4215,7 @@
       <c r="X5" s="33"/>
       <c r="Y5" s="33"/>
     </row>
-    <row r="6" s="3" customFormat="1" ht="33" spans="1:25">
+    <row r="6" s="3" customFormat="1" ht="30" spans="1:25">
       <c r="A6" s="23"/>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
@@ -4258,7 +4258,7 @@
       <c r="X6" s="33"/>
       <c r="Y6" s="33"/>
     </row>
-    <row r="7" s="3" customFormat="1" ht="33" spans="1:25">
+    <row r="7" s="3" customFormat="1" ht="30" spans="1:25">
       <c r="A7" s="23"/>
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
@@ -4301,7 +4301,7 @@
       <c r="X7" s="33"/>
       <c r="Y7" s="33"/>
     </row>
-    <row r="8" s="3" customFormat="1" ht="33" spans="1:25">
+    <row r="8" s="3" customFormat="1" ht="30" spans="1:25">
       <c r="A8" s="23"/>
       <c r="B8" s="24"/>
       <c r="C8" s="24"/>
@@ -4344,7 +4344,7 @@
       <c r="X8" s="33"/>
       <c r="Y8" s="33"/>
     </row>
-    <row r="9" s="3" customFormat="1" ht="33" spans="1:25">
+    <row r="9" s="3" customFormat="1" ht="30" spans="1:25">
       <c r="A9" s="23"/>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
@@ -4387,7 +4387,7 @@
       <c r="X9" s="33"/>
       <c r="Y9" s="33"/>
     </row>
-    <row r="10" s="3" customFormat="1" ht="33" spans="1:25">
+    <row r="10" s="3" customFormat="1" ht="30" spans="1:25">
       <c r="A10" s="23"/>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
@@ -4430,7 +4430,7 @@
       <c r="X10" s="33"/>
       <c r="Y10" s="33"/>
     </row>
-    <row r="11" s="3" customFormat="1" ht="33" spans="1:25">
+    <row r="11" s="3" customFormat="1" ht="30" spans="1:25">
       <c r="A11" s="23"/>
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
@@ -4473,7 +4473,7 @@
       <c r="X11" s="33"/>
       <c r="Y11" s="33"/>
     </row>
-    <row r="12" s="3" customFormat="1" ht="16.5" spans="1:25">
+    <row r="12" s="3" customFormat="1" ht="15.6" spans="1:25">
       <c r="A12" s="21"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -4502,7 +4502,7 @@
       <c r="X12" s="33"/>
       <c r="Y12" s="33"/>
     </row>
-    <row r="13" s="3" customFormat="1" ht="49.5" spans="1:25">
+    <row r="13" s="3" customFormat="1" ht="45" spans="1:25">
       <c r="A13" s="23"/>
       <c r="B13" s="24"/>
       <c r="C13" s="24"/>
@@ -4545,7 +4545,7 @@
       <c r="X13" s="33"/>
       <c r="Y13" s="33"/>
     </row>
-    <row r="14" s="3" customFormat="1" ht="49.5" spans="1:25">
+    <row r="14" s="3" customFormat="1" ht="45" spans="1:25">
       <c r="A14" s="23"/>
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
@@ -4588,7 +4588,7 @@
       <c r="X14" s="33"/>
       <c r="Y14" s="33"/>
     </row>
-    <row r="15" s="3" customFormat="1" ht="49.5" spans="1:25">
+    <row r="15" s="3" customFormat="1" ht="45" spans="1:25">
       <c r="A15" s="23"/>
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
@@ -4631,7 +4631,7 @@
       <c r="X15" s="33"/>
       <c r="Y15" s="33"/>
     </row>
-    <row r="16" s="3" customFormat="1" ht="49.5" spans="1:25">
+    <row r="16" s="3" customFormat="1" ht="45" spans="1:25">
       <c r="A16" s="23"/>
       <c r="B16" s="24"/>
       <c r="C16" s="24"/>
@@ -4674,7 +4674,7 @@
       <c r="X16" s="33"/>
       <c r="Y16" s="33"/>
     </row>
-    <row r="17" s="3" customFormat="1" ht="49.5" spans="1:25">
+    <row r="17" s="3" customFormat="1" ht="45" spans="1:25">
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
       <c r="C17" s="24"/>
@@ -4717,7 +4717,7 @@
       <c r="X17" s="33"/>
       <c r="Y17" s="33"/>
     </row>
-    <row r="18" s="3" customFormat="1" ht="49.5" spans="1:25">
+    <row r="18" s="3" customFormat="1" ht="45" spans="1:25">
       <c r="A18" s="23"/>
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
@@ -4760,7 +4760,7 @@
       <c r="X18" s="33"/>
       <c r="Y18" s="33"/>
     </row>
-    <row r="19" s="3" customFormat="1" ht="49.5" spans="1:25">
+    <row r="19" s="3" customFormat="1" ht="45" spans="1:25">
       <c r="A19" s="23"/>
       <c r="B19" s="24"/>
       <c r="C19" s="24"/>
@@ -4803,7 +4803,7 @@
       <c r="X19" s="33"/>
       <c r="Y19" s="33"/>
     </row>
-    <row r="20" s="3" customFormat="1" ht="49.5" spans="1:25">
+    <row r="20" s="3" customFormat="1" ht="45" spans="1:25">
       <c r="A20" s="23"/>
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
@@ -4846,7 +4846,7 @@
       <c r="X20" s="33"/>
       <c r="Y20" s="33"/>
     </row>
-    <row r="21" s="3" customFormat="1" ht="49.5" spans="1:25">
+    <row r="21" s="3" customFormat="1" ht="45" spans="1:25">
       <c r="A21" s="23"/>
       <c r="B21" s="24"/>
       <c r="C21" s="24"/>
@@ -4889,7 +4889,7 @@
       <c r="X21" s="33"/>
       <c r="Y21" s="33"/>
     </row>
-    <row r="22" s="3" customFormat="1" ht="49.5" spans="1:25">
+    <row r="22" s="3" customFormat="1" ht="45" spans="1:25">
       <c r="A22" s="23"/>
       <c r="B22" s="24"/>
       <c r="C22" s="24"/>
@@ -4932,7 +4932,7 @@
       <c r="X22" s="33"/>
       <c r="Y22" s="33"/>
     </row>
-    <row r="23" s="3" customFormat="1" ht="33" spans="1:25">
+    <row r="23" s="3" customFormat="1" ht="30" spans="1:25">
       <c r="A23" s="23"/>
       <c r="B23" s="24"/>
       <c r="C23" s="24"/>
@@ -4975,7 +4975,7 @@
       <c r="X23" s="33"/>
       <c r="Y23" s="33"/>
     </row>
-    <row r="24" s="3" customFormat="1" ht="33" spans="1:25">
+    <row r="24" s="3" customFormat="1" ht="30" spans="1:25">
       <c r="A24" s="23"/>
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
@@ -5018,7 +5018,7 @@
       <c r="X24" s="33"/>
       <c r="Y24" s="33"/>
     </row>
-    <row r="25" s="3" customFormat="1" ht="33" spans="1:25">
+    <row r="25" s="3" customFormat="1" ht="30" spans="1:25">
       <c r="A25" s="23"/>
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
@@ -5061,7 +5061,7 @@
       <c r="X25" s="33"/>
       <c r="Y25" s="33"/>
     </row>
-    <row r="26" s="3" customFormat="1" ht="16.5" spans="1:25">
+    <row r="26" s="3" customFormat="1" ht="15.6" spans="1:25">
       <c r="A26" s="21"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15" t="s">
@@ -5090,7 +5090,7 @@
       <c r="X26" s="33"/>
       <c r="Y26" s="33"/>
     </row>
-    <row r="27" s="3" customFormat="1" ht="16.5" spans="1:25">
+    <row r="27" s="3" customFormat="1" ht="30" spans="1:25">
       <c r="A27" s="21"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -5119,7 +5119,7 @@
       <c r="X27" s="33"/>
       <c r="Y27" s="33"/>
     </row>
-    <row r="28" s="3" customFormat="1" ht="33" spans="1:25">
+    <row r="28" s="3" customFormat="1" ht="30" spans="1:25">
       <c r="A28" s="23"/>
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
@@ -5162,7 +5162,7 @@
       <c r="X28" s="33"/>
       <c r="Y28" s="33"/>
     </row>
-    <row r="29" s="3" customFormat="1" ht="33" spans="1:25">
+    <row r="29" s="3" customFormat="1" ht="30" spans="1:25">
       <c r="A29" s="23"/>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
@@ -5205,7 +5205,7 @@
       <c r="X29" s="33"/>
       <c r="Y29" s="33"/>
     </row>
-    <row r="30" s="3" customFormat="1" ht="33" spans="1:25">
+    <row r="30" s="3" customFormat="1" ht="30" spans="1:25">
       <c r="A30" s="23"/>
       <c r="B30" s="24"/>
       <c r="C30" s="24"/>
@@ -5248,7 +5248,7 @@
       <c r="X30" s="33"/>
       <c r="Y30" s="33"/>
     </row>
-    <row r="31" s="3" customFormat="1" ht="33" spans="1:25">
+    <row r="31" s="3" customFormat="1" ht="30" spans="1:25">
       <c r="A31" s="23"/>
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
@@ -5291,7 +5291,7 @@
       <c r="X31" s="33"/>
       <c r="Y31" s="33"/>
     </row>
-    <row r="32" s="3" customFormat="1" ht="33" spans="1:25">
+    <row r="32" s="3" customFormat="1" ht="30" spans="1:25">
       <c r="A32" s="23"/>
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
@@ -5334,7 +5334,7 @@
       <c r="X32" s="33"/>
       <c r="Y32" s="33"/>
     </row>
-    <row r="33" s="3" customFormat="1" ht="16.5" spans="1:25">
+    <row r="33" s="3" customFormat="1" ht="30" spans="1:25">
       <c r="A33" s="21"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -5363,7 +5363,7 @@
       <c r="X33" s="33"/>
       <c r="Y33" s="33"/>
     </row>
-    <row r="34" s="3" customFormat="1" ht="33" spans="1:25">
+    <row r="34" s="3" customFormat="1" ht="30" spans="1:25">
       <c r="A34" s="23"/>
       <c r="B34" s="24"/>
       <c r="C34" s="24"/>
@@ -5406,7 +5406,7 @@
       <c r="X34" s="33"/>
       <c r="Y34" s="33"/>
     </row>
-    <row r="35" s="3" customFormat="1" ht="33" spans="1:25">
+    <row r="35" s="3" customFormat="1" ht="30" spans="1:25">
       <c r="A35" s="23"/>
       <c r="B35" s="24"/>
       <c r="C35" s="24"/>
@@ -5449,7 +5449,7 @@
       <c r="X35" s="33"/>
       <c r="Y35" s="33"/>
     </row>
-    <row r="36" s="3" customFormat="1" ht="33" spans="1:25">
+    <row r="36" s="3" customFormat="1" ht="30" spans="1:25">
       <c r="A36" s="23"/>
       <c r="B36" s="24"/>
       <c r="C36" s="24"/>
@@ -5492,7 +5492,7 @@
       <c r="X36" s="33"/>
       <c r="Y36" s="33"/>
     </row>
-    <row r="37" s="3" customFormat="1" ht="33" spans="1:25">
+    <row r="37" s="3" customFormat="1" ht="30" spans="1:25">
       <c r="A37" s="23"/>
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
@@ -5535,7 +5535,7 @@
       <c r="X37" s="33"/>
       <c r="Y37" s="33"/>
     </row>
-    <row r="38" s="3" customFormat="1" ht="33" spans="1:25">
+    <row r="38" s="3" customFormat="1" ht="30" spans="1:25">
       <c r="A38" s="23"/>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
@@ -5578,7 +5578,7 @@
       <c r="X38" s="33"/>
       <c r="Y38" s="33"/>
     </row>
-    <row r="39" s="3" customFormat="1" ht="33" spans="1:25">
+    <row r="39" s="3" customFormat="1" ht="30" spans="1:25">
       <c r="A39" s="21"/>
       <c r="B39" s="15" t="s">
         <v>115</v>
@@ -5607,7 +5607,7 @@
       <c r="X39" s="33"/>
       <c r="Y39" s="33"/>
     </row>
-    <row r="40" s="3" customFormat="1" ht="33" spans="1:25">
+    <row r="40" s="3" customFormat="1" ht="30" spans="1:25">
       <c r="A40" s="21"/>
       <c r="B40" s="15"/>
       <c r="C40" s="15" t="s">
@@ -5636,7 +5636,7 @@
       <c r="X40" s="33"/>
       <c r="Y40" s="33"/>
     </row>
-    <row r="41" s="3" customFormat="1" ht="16.5" spans="1:25">
+    <row r="41" s="3" customFormat="1" ht="15.6" spans="1:25">
       <c r="A41" s="21"/>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
@@ -5665,7 +5665,7 @@
       <c r="X41" s="33"/>
       <c r="Y41" s="33"/>
     </row>
-    <row r="42" s="3" customFormat="1" ht="33" spans="1:25">
+    <row r="42" s="3" customFormat="1" ht="30" spans="1:25">
       <c r="A42" s="23"/>
       <c r="B42" s="24"/>
       <c r="C42" s="24"/>
@@ -5710,7 +5710,7 @@
       <c r="X42" s="33"/>
       <c r="Y42" s="33"/>
     </row>
-    <row r="43" s="3" customFormat="1" ht="33" spans="1:25">
+    <row r="43" s="3" customFormat="1" ht="30" spans="1:25">
       <c r="A43" s="23"/>
       <c r="B43" s="24"/>
       <c r="C43" s="24"/>
@@ -5755,7 +5755,7 @@
       <c r="X43" s="33"/>
       <c r="Y43" s="33"/>
     </row>
-    <row r="44" s="3" customFormat="1" ht="33" spans="1:25">
+    <row r="44" s="3" customFormat="1" ht="30" spans="1:25">
       <c r="A44" s="23"/>
       <c r="B44" s="24"/>
       <c r="C44" s="24"/>
@@ -5800,7 +5800,7 @@
       <c r="X44" s="33"/>
       <c r="Y44" s="33"/>
     </row>
-    <row r="45" s="3" customFormat="1" ht="33" spans="1:25">
+    <row r="45" s="3" customFormat="1" ht="30" spans="1:25">
       <c r="A45" s="23"/>
       <c r="B45" s="24"/>
       <c r="C45" s="24"/>
@@ -5845,7 +5845,7 @@
       <c r="X45" s="33"/>
       <c r="Y45" s="33"/>
     </row>
-    <row r="46" s="3" customFormat="1" ht="16.5" spans="1:25">
+    <row r="46" s="3" customFormat="1" ht="15.6" spans="1:25">
       <c r="A46" s="21"/>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
@@ -5874,7 +5874,7 @@
       <c r="X46" s="33"/>
       <c r="Y46" s="33"/>
     </row>
-    <row r="47" s="3" customFormat="1" ht="33" spans="1:25">
+    <row r="47" s="3" customFormat="1" ht="30" spans="1:25">
       <c r="A47" s="23"/>
       <c r="B47" s="24"/>
       <c r="C47" s="24"/>
@@ -5919,7 +5919,7 @@
       <c r="X47" s="33"/>
       <c r="Y47" s="33"/>
     </row>
-    <row r="48" s="3" customFormat="1" ht="33" spans="1:25">
+    <row r="48" s="3" customFormat="1" ht="30" spans="1:25">
       <c r="A48" s="23"/>
       <c r="B48" s="24"/>
       <c r="C48" s="24"/>
@@ -5964,7 +5964,7 @@
       <c r="X48" s="33"/>
       <c r="Y48" s="33"/>
     </row>
-    <row r="49" s="3" customFormat="1" ht="33" spans="1:25">
+    <row r="49" s="3" customFormat="1" ht="30" spans="1:25">
       <c r="A49" s="23"/>
       <c r="B49" s="24"/>
       <c r="C49" s="24"/>
@@ -6009,7 +6009,7 @@
       <c r="X49" s="33"/>
       <c r="Y49" s="33"/>
     </row>
-    <row r="50" s="3" customFormat="1" ht="33" spans="1:25">
+    <row r="50" s="3" customFormat="1" ht="30" spans="1:25">
       <c r="A50" s="23"/>
       <c r="B50" s="24"/>
       <c r="C50" s="24"/>
@@ -6054,7 +6054,7 @@
       <c r="X50" s="33"/>
       <c r="Y50" s="33"/>
     </row>
-    <row r="51" s="3" customFormat="1" ht="33" spans="1:25">
+    <row r="51" s="3" customFormat="1" ht="30" spans="1:25">
       <c r="A51" s="23"/>
       <c r="B51" s="24"/>
       <c r="C51" s="24"/>
@@ -6099,7 +6099,7 @@
       <c r="X51" s="33"/>
       <c r="Y51" s="33"/>
     </row>
-    <row r="52" s="3" customFormat="1" ht="33" spans="1:25">
+    <row r="52" s="3" customFormat="1" ht="30" spans="1:25">
       <c r="A52" s="23"/>
       <c r="B52" s="24"/>
       <c r="C52" s="24"/>
@@ -6144,7 +6144,7 @@
       <c r="X52" s="33"/>
       <c r="Y52" s="33"/>
     </row>
-    <row r="53" s="3" customFormat="1" ht="33" spans="1:25">
+    <row r="53" s="3" customFormat="1" ht="30" spans="1:25">
       <c r="A53" s="23"/>
       <c r="B53" s="24"/>
       <c r="C53" s="24"/>
@@ -6189,7 +6189,7 @@
       <c r="X53" s="33"/>
       <c r="Y53" s="33"/>
     </row>
-    <row r="54" s="3" customFormat="1" ht="33" spans="1:25">
+    <row r="54" s="3" customFormat="1" ht="30" spans="1:25">
       <c r="A54" s="23"/>
       <c r="B54" s="24"/>
       <c r="C54" s="24"/>
@@ -6234,7 +6234,7 @@
       <c r="X54" s="33"/>
       <c r="Y54" s="33"/>
     </row>
-    <row r="55" s="3" customFormat="1" ht="33" spans="1:25">
+    <row r="55" s="3" customFormat="1" ht="30" spans="1:25">
       <c r="A55" s="23"/>
       <c r="B55" s="24"/>
       <c r="C55" s="24"/>
@@ -6279,7 +6279,7 @@
       <c r="X55" s="33"/>
       <c r="Y55" s="33"/>
     </row>
-    <row r="56" s="3" customFormat="1" ht="33" spans="1:25">
+    <row r="56" s="3" customFormat="1" ht="30" spans="1:25">
       <c r="A56" s="23"/>
       <c r="B56" s="24"/>
       <c r="C56" s="24"/>
@@ -6324,7 +6324,7 @@
       <c r="X56" s="33"/>
       <c r="Y56" s="33"/>
     </row>
-    <row r="57" s="3" customFormat="1" ht="33" spans="1:25">
+    <row r="57" s="3" customFormat="1" ht="30" spans="1:25">
       <c r="A57" s="23"/>
       <c r="B57" s="24"/>
       <c r="C57" s="24"/>
@@ -6369,7 +6369,7 @@
       <c r="X57" s="33"/>
       <c r="Y57" s="33"/>
     </row>
-    <row r="58" s="3" customFormat="1" ht="33" spans="1:25">
+    <row r="58" s="3" customFormat="1" ht="30" spans="1:25">
       <c r="A58" s="23"/>
       <c r="B58" s="24"/>
       <c r="C58" s="24"/>
@@ -6414,7 +6414,7 @@
       <c r="X58" s="33"/>
       <c r="Y58" s="33"/>
     </row>
-    <row r="59" s="3" customFormat="1" ht="33" spans="1:25">
+    <row r="59" s="3" customFormat="1" ht="30" spans="1:25">
       <c r="A59" s="23"/>
       <c r="B59" s="24"/>
       <c r="C59" s="24"/>
@@ -6457,7 +6457,7 @@
       <c r="X59" s="33"/>
       <c r="Y59" s="33"/>
     </row>
-    <row r="60" s="3" customFormat="1" ht="33" spans="1:25">
+    <row r="60" s="3" customFormat="1" ht="30" spans="1:25">
       <c r="A60" s="23"/>
       <c r="B60" s="24"/>
       <c r="C60" s="24"/>
@@ -6500,7 +6500,7 @@
       <c r="X60" s="33"/>
       <c r="Y60" s="33"/>
     </row>
-    <row r="61" s="3" customFormat="1" ht="33" spans="1:25">
+    <row r="61" s="3" customFormat="1" ht="30" spans="1:25">
       <c r="A61" s="23"/>
       <c r="B61" s="24"/>
       <c r="C61" s="24"/>
@@ -6543,7 +6543,7 @@
       <c r="X61" s="33"/>
       <c r="Y61" s="33"/>
     </row>
-    <row r="62" s="3" customFormat="1" ht="33" spans="1:25">
+    <row r="62" s="3" customFormat="1" ht="30" spans="1:25">
       <c r="A62" s="21"/>
       <c r="B62" s="15"/>
       <c r="C62" s="15" t="s">
@@ -6572,7 +6572,7 @@
       <c r="X62" s="33"/>
       <c r="Y62" s="33"/>
     </row>
-    <row r="63" s="3" customFormat="1" ht="16.5" spans="1:25">
+    <row r="63" s="3" customFormat="1" ht="15.6" spans="1:25">
       <c r="A63" s="21"/>
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
@@ -6601,7 +6601,7 @@
       <c r="X63" s="33"/>
       <c r="Y63" s="33"/>
     </row>
-    <row r="64" s="3" customFormat="1" ht="33" spans="1:25">
+    <row r="64" s="3" customFormat="1" ht="30" spans="1:25">
       <c r="A64" s="23"/>
       <c r="B64" s="24"/>
       <c r="C64" s="24"/>
@@ -6646,7 +6646,7 @@
       <c r="X64" s="33"/>
       <c r="Y64" s="33"/>
     </row>
-    <row r="65" s="3" customFormat="1" ht="16.5" spans="1:25">
+    <row r="65" s="3" customFormat="1" ht="15.6" spans="1:25">
       <c r="A65" s="21"/>
       <c r="B65" s="15"/>
       <c r="C65" s="15"/>
@@ -6677,7 +6677,7 @@
       <c r="X65" s="33"/>
       <c r="Y65" s="33"/>
     </row>
-    <row r="66" s="3" customFormat="1" ht="49.5" spans="1:25">
+    <row r="66" s="3" customFormat="1" ht="45" spans="1:25">
       <c r="A66" s="23"/>
       <c r="B66" s="24"/>
       <c r="C66" s="24"/>
@@ -6722,7 +6722,7 @@
       <c r="X66" s="33"/>
       <c r="Y66" s="33"/>
     </row>
-    <row r="67" s="3" customFormat="1" ht="16.5" spans="1:25">
+    <row r="67" s="3" customFormat="1" ht="15.6" spans="1:25">
       <c r="A67" s="21"/>
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
@@ -6751,7 +6751,7 @@
       <c r="X67" s="33"/>
       <c r="Y67" s="33"/>
     </row>
-    <row r="68" s="3" customFormat="1" ht="33" spans="1:25">
+    <row r="68" s="3" customFormat="1" ht="30" spans="1:25">
       <c r="A68" s="23"/>
       <c r="B68" s="24"/>
       <c r="C68" s="24"/>
@@ -6796,7 +6796,7 @@
       <c r="X68" s="33"/>
       <c r="Y68" s="33"/>
     </row>
-    <row r="69" s="3" customFormat="1" ht="33" spans="1:25">
+    <row r="69" s="3" customFormat="1" ht="30" spans="1:25">
       <c r="A69" s="23"/>
       <c r="B69" s="24"/>
       <c r="C69" s="24"/>
@@ -6839,7 +6839,7 @@
       <c r="X69" s="33"/>
       <c r="Y69" s="33"/>
     </row>
-    <row r="70" s="3" customFormat="1" ht="33" spans="1:25">
+    <row r="70" s="3" customFormat="1" ht="30" spans="1:25">
       <c r="A70" s="23"/>
       <c r="B70" s="24"/>
       <c r="C70" s="24"/>
@@ -6882,7 +6882,7 @@
       <c r="X70" s="33"/>
       <c r="Y70" s="33"/>
     </row>
-    <row r="71" s="3" customFormat="1" ht="33" spans="1:25">
+    <row r="71" s="3" customFormat="1" ht="30" spans="1:25">
       <c r="A71" s="23"/>
       <c r="B71" s="24"/>
       <c r="C71" s="24"/>
@@ -6925,7 +6925,7 @@
       <c r="X71" s="33"/>
       <c r="Y71" s="33"/>
     </row>
-    <row r="72" s="3" customFormat="1" ht="49.5" spans="1:25">
+    <row r="72" s="3" customFormat="1" ht="60" spans="1:25">
       <c r="A72" s="21"/>
       <c r="B72" s="15" t="s">
         <v>219</v>
@@ -6954,7 +6954,7 @@
       <c r="X72" s="33"/>
       <c r="Y72" s="33"/>
     </row>
-    <row r="73" s="3" customFormat="1" ht="16.5" spans="1:25">
+    <row r="73" s="3" customFormat="1" ht="15.6" spans="1:25">
       <c r="A73" s="21"/>
       <c r="B73" s="15"/>
       <c r="C73" s="15" t="s">
@@ -6983,7 +6983,7 @@
       <c r="X73" s="33"/>
       <c r="Y73" s="33"/>
     </row>
-    <row r="74" s="3" customFormat="1" ht="49.5" spans="1:25">
+    <row r="74" s="3" customFormat="1" ht="45" spans="1:25">
       <c r="A74" s="23"/>
       <c r="B74" s="24"/>
       <c r="C74" s="24"/>
@@ -7026,7 +7026,7 @@
       <c r="X74" s="33"/>
       <c r="Y74" s="33"/>
     </row>
-    <row r="75" s="3" customFormat="1" ht="49.5" spans="1:25">
+    <row r="75" s="3" customFormat="1" ht="45" spans="1:25">
       <c r="A75" s="23"/>
       <c r="B75" s="24"/>
       <c r="C75" s="24"/>
@@ -7071,7 +7071,7 @@
       <c r="X75" s="33"/>
       <c r="Y75" s="33"/>
     </row>
-    <row r="76" s="3" customFormat="1" ht="49.5" spans="1:25">
+    <row r="76" s="3" customFormat="1" ht="45" spans="1:25">
       <c r="A76" s="23"/>
       <c r="B76" s="24"/>
       <c r="C76" s="24"/>
@@ -7116,7 +7116,7 @@
       <c r="X76" s="33"/>
       <c r="Y76" s="33"/>
     </row>
-    <row r="77" s="3" customFormat="1" ht="49.5" spans="1:25">
+    <row r="77" s="3" customFormat="1" ht="45" spans="1:25">
       <c r="A77" s="23"/>
       <c r="B77" s="24"/>
       <c r="C77" s="24"/>
@@ -7161,7 +7161,7 @@
       <c r="X77" s="33"/>
       <c r="Y77" s="33"/>
     </row>
-    <row r="78" s="3" customFormat="1" ht="49.5" spans="1:25">
+    <row r="78" s="3" customFormat="1" ht="45" spans="1:25">
       <c r="A78" s="23"/>
       <c r="B78" s="24"/>
       <c r="C78" s="24"/>
@@ -7206,7 +7206,7 @@
       <c r="X78" s="33"/>
       <c r="Y78" s="33"/>
     </row>
-    <row r="79" s="3" customFormat="1" ht="49.5" spans="1:25">
+    <row r="79" s="3" customFormat="1" ht="45" spans="1:25">
       <c r="A79" s="23"/>
       <c r="B79" s="24"/>
       <c r="C79" s="24"/>
@@ -7251,7 +7251,7 @@
       <c r="X79" s="33"/>
       <c r="Y79" s="33"/>
     </row>
-    <row r="80" s="3" customFormat="1" ht="49.5" spans="1:25">
+    <row r="80" s="3" customFormat="1" ht="45" spans="1:25">
       <c r="A80" s="23"/>
       <c r="B80" s="24"/>
       <c r="C80" s="24"/>
@@ -7296,7 +7296,7 @@
       <c r="X80" s="33"/>
       <c r="Y80" s="33"/>
     </row>
-    <row r="81" s="3" customFormat="1" ht="49.5" spans="1:25">
+    <row r="81" s="3" customFormat="1" ht="45" spans="1:25">
       <c r="A81" s="23"/>
       <c r="B81" s="24"/>
       <c r="C81" s="24"/>
@@ -7341,7 +7341,7 @@
       <c r="X81" s="33"/>
       <c r="Y81" s="33"/>
     </row>
-    <row r="82" s="3" customFormat="1" ht="49.5" spans="1:25">
+    <row r="82" s="3" customFormat="1" ht="45" spans="1:25">
       <c r="A82" s="23"/>
       <c r="B82" s="24"/>
       <c r="C82" s="24"/>
@@ -7386,7 +7386,7 @@
       <c r="X82" s="33"/>
       <c r="Y82" s="33"/>
     </row>
-    <row r="83" s="3" customFormat="1" ht="16.5" spans="1:25">
+    <row r="83" s="3" customFormat="1" ht="15.6" spans="1:25">
       <c r="A83" s="21"/>
       <c r="B83" s="15"/>
       <c r="C83" s="15" t="s">
@@ -7415,7 +7415,7 @@
       <c r="X83" s="33"/>
       <c r="Y83" s="33"/>
     </row>
-    <row r="84" s="3" customFormat="1" ht="49.5" spans="1:25">
+    <row r="84" s="3" customFormat="1" ht="45" spans="1:25">
       <c r="A84" s="23"/>
       <c r="B84" s="24"/>
       <c r="C84" s="24"/>
@@ -7460,7 +7460,7 @@
       <c r="X84" s="33"/>
       <c r="Y84" s="33"/>
     </row>
-    <row r="85" s="3" customFormat="1" ht="49.5" spans="1:25">
+    <row r="85" s="3" customFormat="1" ht="45" spans="1:25">
       <c r="A85" s="23"/>
       <c r="B85" s="24"/>
       <c r="C85" s="24"/>
@@ -7856,7 +7856,6 @@
       <c r="I97" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="J97" s="2"/>
       <c r="K97" s="2" t="s">
         <v>308</v>
       </c>
@@ -8958,7 +8957,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="133" s="7" customFormat="1" ht="16.5" spans="1:19">
+    <row r="133" s="7" customFormat="1" ht="15" spans="1:19">
       <c r="A133" s="39"/>
       <c r="B133" s="39" t="s">
         <v>432</v>
@@ -8981,7 +8980,7 @@
       <c r="R133" s="43"/>
       <c r="S133" s="43"/>
     </row>
-    <row r="134" s="7" customFormat="1" ht="16.5" spans="1:19">
+    <row r="134" s="7" customFormat="1" ht="15" spans="1:19">
       <c r="A134" s="46"/>
       <c r="B134" s="39"/>
       <c r="C134" s="39" t="s">
@@ -9004,7 +9003,7 @@
       <c r="R134" s="49"/>
       <c r="S134" s="49"/>
     </row>
-    <row r="135" s="7" customFormat="1" ht="16.5" spans="1:19">
+    <row r="135" s="7" customFormat="1" ht="15" spans="1:19">
       <c r="A135" s="46"/>
       <c r="B135" s="39"/>
       <c r="C135" s="39"/>
@@ -9155,7 +9154,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="140" s="7" customFormat="1" ht="16.5" spans="1:19">
+    <row r="140" s="7" customFormat="1" ht="15" spans="1:19">
       <c r="A140" s="46"/>
       <c r="B140" s="39"/>
       <c r="C140" s="39"/>
@@ -9466,7 +9465,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="150" s="7" customFormat="1" ht="16.5" spans="1:19">
+    <row r="150" s="7" customFormat="1" ht="15" spans="1:19">
       <c r="A150" s="46"/>
       <c r="B150" s="39"/>
       <c r="C150" s="39"/>
@@ -9681,7 +9680,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="157" s="7" customFormat="1" ht="16.5" spans="1:19">
+    <row r="157" s="7" customFormat="1" ht="15" spans="1:19">
       <c r="A157" s="46"/>
       <c r="B157" s="39"/>
       <c r="C157" s="39"/>
@@ -13158,7 +13157,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="273" s="7" customFormat="1" spans="1:19">
+    <row r="273" s="7" customFormat="1" ht="24" spans="1:19">
       <c r="A273" s="46"/>
       <c r="B273" s="46"/>
       <c r="C273" s="46" t="s">
@@ -13691,7 +13690,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="292" s="7" customFormat="1" spans="1:19">
+    <row r="292" s="7" customFormat="1" ht="24" spans="1:19">
       <c r="A292" s="46"/>
       <c r="B292" s="46"/>
       <c r="C292" s="46" t="s">
@@ -14485,7 +14484,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="320" s="7" customFormat="1" spans="1:19">
+    <row r="320" s="7" customFormat="1" ht="24" spans="1:19">
       <c r="A320" s="46"/>
       <c r="B320" s="46"/>
       <c r="C320" s="46" t="s">

--- a/0咪咕音乐/咪咕音乐v3130/咪咕音乐Jadeite_USS_music-V3.13.0版本测试用例.xlsx
+++ b/0咪咕音乐/咪咕音乐v3130/咪咕音乐Jadeite_USS_music-V3.13.0版本测试用例.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">es!$A$1:$XEU$335</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcCompleted="0" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -2680,10 +2680,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -2768,18 +2768,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2798,9 +2791,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2811,8 +2834,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2836,17 +2875,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2871,44 +2909,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2939,7 +2939,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2951,25 +2993,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2981,31 +3071,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3017,103 +3107,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3257,11 +3257,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3277,6 +3284,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3298,8 +3335,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3309,46 +3348,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3360,10 +3360,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3372,133 +3372,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4016,9 +4016,9 @@
   <dimension ref="A1:AC335"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I84" sqref="I84"/>
+      <selection pane="bottomLeft" activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
